--- a/data/trans_orig/IP07C12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD41724B-F354-4A7C-B3EE-C7C1B115ED93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EDCB432-7C98-4BA1-A7E0-54D699D45FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CE6284E2-C6E3-4E5F-8AEA-D8B9F7CEA494}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{97104C87-5C7E-490E-BD02-673630AC28A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,256 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>14,56%</t>
@@ -100,33 +346,6 @@
     <t>18,0%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>30,13%</t>
   </si>
   <si>
@@ -154,30 +373,6 @@
     <t>37,69%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>54,58%</t>
   </si>
   <si>
@@ -205,117 +400,144 @@
     <t>58,16%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
     <t>12,59%</t>
   </si>
   <si>
@@ -343,21 +565,6 @@
     <t>14,57%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
     <t>34,1%</t>
   </si>
   <si>
@@ -382,15 +589,6 @@
     <t>39,18%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>52,65%</t>
   </si>
   <si>
@@ -418,202 +616,43 @@
     <t>60,69%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>13,55%</t>
@@ -643,24 +682,6 @@
     <t>14,84%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
     <t>31,64%</t>
   </si>
   <si>
@@ -688,27 +709,6 @@
     <t>35,8%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>54,17%</t>
   </si>
   <si>
@@ -739,6 +739,198 @@
     <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
   </si>
   <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
     <t>9,97%</t>
   </si>
   <si>
@@ -766,21 +958,6 @@
     <t>14,2%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
     <t>36,09%</t>
   </si>
   <si>
@@ -805,9 +982,6 @@
     <t>39,04%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
     <t>53,94%</t>
   </si>
   <si>
@@ -835,97 +1009,127 @@
     <t>61,27%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>14,04%</t>
@@ -955,24 +1159,6 @@
     <t>18,63%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
     <t>33,79%</t>
   </si>
   <si>
@@ -997,15 +1183,6 @@
     <t>43,0%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
     <t>50,43%</t>
   </si>
   <si>
@@ -1033,181 +1210,25 @@
     <t>54,44%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>9,71%</t>
@@ -1234,18 +1255,6 @@
     <t>13,14%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
     <t>33,41%</t>
   </si>
   <si>
@@ -1273,15 +1282,6 @@
     <t>35,27%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>55,9%</t>
   </si>
   <si>
@@ -1309,6 +1309,192 @@
     <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2015 (Tasa respuesta: 45,48%)</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
     <t>5,64%</t>
   </si>
   <si>
@@ -1333,24 +1519,6 @@
     <t>12,46%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
     <t>39,85%</t>
   </si>
   <si>
@@ -1363,9 +1531,6 @@
     <t>41,43%</t>
   </si>
   <si>
-    <t>33,74%</t>
-  </si>
-  <si>
     <t>49,04%</t>
   </si>
   <si>
@@ -1378,18 +1543,6 @@
     <t>46,97%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
     <t>41,49%</t>
   </si>
   <si>
@@ -1414,85 +1567,133 @@
     <t>53,69%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>12,86%</t>
@@ -1519,21 +1720,6 @@
     <t>18,98%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
     <t>34,54%</t>
   </si>
   <si>
@@ -1561,12 +1747,6 @@
     <t>39,32%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>51,87%</t>
   </si>
   <si>
@@ -1594,184 +1774,31 @@
     <t>58,54%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>9,32%</t>
@@ -1798,27 +1825,6 @@
     <t>12,26%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
     <t>35,5%</t>
   </si>
   <si>
@@ -1844,12 +1850,6 @@
   </si>
   <si>
     <t>37,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
   </si>
   <si>
     <t>54,29%</t>
@@ -2268,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083844E-931D-428C-9B31-4026D49B6B46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE6B801-7451-46D3-9E1E-ED2468684FB8}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2386,10 +2386,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13311</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2401,40 +2401,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>12802</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>40</v>
-      </c>
-      <c r="N4" s="7">
-        <v>26113</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2443,196 +2443,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1124</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1124</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>27549</v>
+        <v>1440</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>33340</v>
+        <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>60889</v>
+        <v>2368</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>667</v>
+        <v>5065</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>642</v>
+        <v>7026</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>1309</v>
+        <v>12091</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>49898</v>
+        <v>5976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>49937</v>
+        <v>5387</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>99834</v>
+        <v>11363</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,108 +2641,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>91425</v>
+        <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>97844</v>
+        <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
-        <v>293</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>189269</v>
+        <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>9298</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>7348</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>16646</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2751,13 +2751,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2766,13 +2766,13 @@
         <v>635</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2781,121 +2781,121 @@
         <v>635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>19527</v>
+        <v>9298</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>18372</v>
+        <v>7348</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>37899</v>
+        <v>16646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>19527</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7">
+        <v>27</v>
+      </c>
+      <c r="I13" s="7">
+        <v>18372</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>37899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7">
         <v>41</v>
@@ -2904,13 +2904,13 @@
         <v>26664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2919,13 +2919,13 @@
         <v>17805</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -2934,13 +2934,13 @@
         <v>44469</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2955,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -2970,13 +2970,13 @@
         <v>44160</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -2985,270 +2985,270 @@
         <v>99649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>11099</v>
+        <v>667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>4902</v>
+        <v>642</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>16002</v>
+        <v>1309</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>4421</v>
+        <v>1124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>4999</v>
+        <v>1124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>30050</v>
+        <v>13311</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>25586</v>
+        <v>12802</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N18" s="7">
-        <v>55636</v>
+        <v>26113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>27549</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>33340</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>60889</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D20" s="7">
-        <v>46401</v>
+        <v>49898</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="7">
+        <v>78</v>
+      </c>
+      <c r="I20" s="7">
+        <v>49937</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" s="7">
+        <v>154</v>
+      </c>
+      <c r="N20" s="7">
+        <v>99834</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="H20" s="7">
-        <v>57</v>
-      </c>
-      <c r="I20" s="7">
-        <v>43400</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>124</v>
-      </c>
-      <c r="N20" s="7">
-        <v>89802</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,123 +3257,123 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D21" s="7">
-        <v>88129</v>
+        <v>91425</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="I21" s="7">
-        <v>78309</v>
+        <v>97844</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="N21" s="7">
-        <v>166438</v>
+        <v>189269</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>929</v>
+        <v>687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>2368</v>
+        <v>687</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3382,181 +3382,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>5065</v>
+        <v>6722</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="7">
+        <v>14</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8388</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="7">
+        <v>24</v>
+      </c>
+      <c r="N24" s="7">
+        <v>15110</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="7">
-        <v>9</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7026</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M24" s="7">
-        <v>15</v>
-      </c>
-      <c r="N24" s="7">
-        <v>12091</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>15536</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>14838</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>30374</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D26" s="7">
-        <v>5976</v>
+        <v>38400</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="I26" s="7">
-        <v>5387</v>
+        <v>31740</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="N26" s="7">
-        <v>11363</v>
+        <v>70140</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,252 +3565,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D27" s="7">
-        <v>12480</v>
+        <v>61377</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>13342</v>
+        <v>55653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="N27" s="7">
-        <v>25822</v>
+        <v>117031</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>6722</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>158</v>
       </c>
       <c r="H28" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>8388</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M28" s="7">
-        <v>24</v>
-      </c>
-      <c r="N28" s="7">
-        <v>15110</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>719</v>
+        <v>578</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="7">
+        <v>6</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4421</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M29" s="7">
+        <v>7</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4999</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <v>719</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>15536</v>
+        <v>11099</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4902</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>22</v>
+      </c>
+      <c r="N30" s="7">
+        <v>16002</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="7">
-        <v>25</v>
-      </c>
-      <c r="I30" s="7">
-        <v>14838</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M30" s="7">
-        <v>49</v>
-      </c>
-      <c r="N30" s="7">
-        <v>30374</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>30050</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="7">
+        <v>33</v>
+      </c>
+      <c r="I31" s="7">
+        <v>25586</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>687</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>77</v>
+      </c>
+      <c r="N31" s="7">
+        <v>55636</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>687</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>182</v>
@@ -3819,13 +3819,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D32" s="7">
-        <v>38400</v>
+        <v>46401</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>183</v>
@@ -3837,10 +3837,10 @@
         <v>185</v>
       </c>
       <c r="H32" s="7">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I32" s="7">
-        <v>31740</v>
+        <v>43400</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>186</v>
@@ -3852,10 +3852,10 @@
         <v>188</v>
       </c>
       <c r="M32" s="7">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="N32" s="7">
-        <v>70140</v>
+        <v>89802</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>189</v>
@@ -3873,49 +3873,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>61377</v>
+        <v>88129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H33" s="7">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I33" s="7">
-        <v>55653</v>
+        <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M33" s="7">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="N33" s="7">
-        <v>117031</v>
+        <v>166438</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,55 +3926,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>41870</v>
+        <v>667</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>192</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1328</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H34" s="7">
-        <v>52</v>
-      </c>
-      <c r="I34" s="7">
-        <v>34369</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1996</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="M34" s="7">
-        <v>115</v>
-      </c>
-      <c r="N34" s="7">
-        <v>76240</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
@@ -3983,13 +3983,13 @@
         <v>1297</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -3998,13 +3998,13 @@
         <v>6179</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -4013,106 +4013,106 @@
         <v>7477</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="D36" s="7">
-        <v>97726</v>
+        <v>41870</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="H36" s="7">
+        <v>52</v>
+      </c>
+      <c r="I36" s="7">
+        <v>34369</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H36" s="7">
-        <v>147</v>
-      </c>
-      <c r="I36" s="7">
-        <v>99162</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>115</v>
+      </c>
+      <c r="N36" s="7">
+        <v>76240</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M36" s="7">
-        <v>292</v>
-      </c>
-      <c r="N36" s="7">
-        <v>196888</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="D37" s="7">
-        <v>667</v>
+        <v>97726</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>147</v>
+      </c>
+      <c r="I37" s="7">
+        <v>99162</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1328</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>219</v>
       </c>
       <c r="M37" s="7">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="N37" s="7">
-        <v>1996</v>
+        <v>196888</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>220</v>
@@ -4127,7 +4127,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C38" s="7">
         <v>254</v>
@@ -4187,13 +4187,13 @@
         <v>308899</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H39" s="7">
         <v>430</v>
@@ -4202,13 +4202,13 @@
         <v>289309</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M39" s="7">
         <v>895</v>
@@ -4217,13 +4217,13 @@
         <v>598208</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4244,7 +4244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47037B2-0422-49AD-8109-D64B04484AA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C6E93C-D5BE-432E-B6A8-4979D54A865B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4362,55 +4362,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9487</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="7">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10253</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M4" s="7">
-        <v>30</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19740</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4419,196 +4419,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1476</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1476</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>34348</v>
+        <v>1982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="H6" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>30422</v>
+        <v>2556</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>64770</v>
+        <v>4538</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>6196</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>8741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>51332</v>
+        <v>6312</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6174</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>14</v>
+      </c>
+      <c r="N8" s="7">
+        <v>12486</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="H8" s="7">
-        <v>83</v>
-      </c>
-      <c r="I8" s="7">
-        <v>55686</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M8" s="7">
-        <v>160</v>
-      </c>
-      <c r="N8" s="7">
-        <v>107018</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,108 +4617,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>95167</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H9" s="7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>97837</v>
+        <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>193004</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3367</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>4871</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="7">
-        <v>8239</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4727,13 +4727,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4742,13 +4742,13 @@
         <v>916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4757,121 +4757,121 @@
         <v>916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>21265</v>
+        <v>3367</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>10786</v>
+        <v>4871</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M12" s="7">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>32052</v>
+        <v>8239</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>21265</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>10786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>32052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7">
         <v>48</v>
@@ -4880,13 +4880,13 @@
         <v>32855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4895,13 +4895,13 @@
         <v>34682</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>97</v>
@@ -4910,13 +4910,13 @@
         <v>67536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4931,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H15" s="7">
         <v>72</v>
@@ -4946,13 +4946,13 @@
         <v>51255</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M15" s="7">
         <v>156</v>
@@ -4961,270 +4961,270 @@
         <v>108742</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>12620</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>11597</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>24216</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1561</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1620</v>
+        <v>1476</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>3181</v>
+        <v>1476</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>30364</v>
+        <v>9487</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>33492</v>
+        <v>10253</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>63855</v>
+        <v>19740</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>34348</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>319</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>30422</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>64770</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7">
-        <v>45309</v>
+        <v>51332</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="7">
+        <v>83</v>
+      </c>
+      <c r="I20" s="7">
+        <v>55686</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="M20" s="7">
+        <v>160</v>
+      </c>
+      <c r="N20" s="7">
+        <v>107018</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H20" s="7">
-        <v>50</v>
-      </c>
-      <c r="I20" s="7">
-        <v>39017</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M20" s="7">
-        <v>113</v>
-      </c>
-      <c r="N20" s="7">
-        <v>84325</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,123 +5233,123 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7">
-        <v>89854</v>
+        <v>95167</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>85725</v>
+        <v>97837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="N21" s="7">
-        <v>175578</v>
+        <v>193004</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>1982</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>2556</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>4538</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5358,181 +5358,181 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>6196</v>
+        <v>4200</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>2545</v>
+        <v>7912</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N24" s="7">
-        <v>8741</v>
+        <v>12112</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>348</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>16775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>18925</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>35700</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>344</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>345</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D26" s="7">
-        <v>6312</v>
+        <v>46463</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>50</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H26" s="7">
+        <v>58</v>
+      </c>
+      <c r="I26" s="7">
+        <v>38330</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6174</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>130</v>
+      </c>
+      <c r="N26" s="7">
+        <v>84793</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="M26" s="7">
-        <v>14</v>
-      </c>
-      <c r="N26" s="7">
-        <v>12486</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,252 +5541,252 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69081</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>11275</v>
+        <v>65167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="N27" s="7">
-        <v>25765</v>
+        <v>134248</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H28" s="7">
-        <v>12</v>
-      </c>
-      <c r="I28" s="7">
-        <v>7912</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="M28" s="7">
-        <v>19</v>
-      </c>
-      <c r="N28" s="7">
-        <v>12112</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>1643</v>
+        <v>1561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>360</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>1643</v>
+        <v>3181</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>286</v>
+        <v>92</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D30" s="7">
-        <v>16775</v>
+        <v>12620</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H30" s="7">
+        <v>14</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11597</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M30" s="7">
+        <v>31</v>
+      </c>
+      <c r="N30" s="7">
+        <v>24216</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H30" s="7">
-        <v>30</v>
-      </c>
-      <c r="I30" s="7">
-        <v>18925</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="M30" s="7">
-        <v>57</v>
-      </c>
-      <c r="N30" s="7">
-        <v>35700</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>30364</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>373</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>374</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>305</v>
+        <v>375</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>33492</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>22</v>
+        <v>376</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>63855</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>21</v>
+        <v>378</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>379</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>380</v>
@@ -5795,13 +5795,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D32" s="7">
-        <v>46463</v>
+        <v>45309</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>381</v>
@@ -5813,10 +5813,10 @@
         <v>383</v>
       </c>
       <c r="H32" s="7">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I32" s="7">
-        <v>38330</v>
+        <v>39017</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>384</v>
@@ -5828,10 +5828,10 @@
         <v>386</v>
       </c>
       <c r="M32" s="7">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="N32" s="7">
-        <v>84793</v>
+        <v>84325</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>387</v>
@@ -5849,49 +5849,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D33" s="7">
-        <v>69081</v>
+        <v>89854</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I33" s="7">
-        <v>65167</v>
+        <v>85725</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M33" s="7">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="N33" s="7">
-        <v>134248</v>
+        <v>175578</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,55 +5902,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>31656</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="H34" s="7">
-        <v>52</v>
-      </c>
-      <c r="I34" s="7">
-        <v>37189</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M34" s="7">
-        <v>97</v>
-      </c>
-      <c r="N34" s="7">
-        <v>68844</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>5</v>
@@ -5959,13 +5959,13 @@
         <v>3204</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -5974,13 +5974,13 @@
         <v>4012</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -5989,112 +5989,112 @@
         <v>7215</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="D36" s="7">
-        <v>108948</v>
+        <v>31656</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H36" s="7">
+        <v>52</v>
+      </c>
+      <c r="I36" s="7">
+        <v>37189</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M36" s="7">
+        <v>97</v>
+      </c>
+      <c r="N36" s="7">
+        <v>68844</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="H36" s="7">
-        <v>139</v>
-      </c>
-      <c r="I36" s="7">
-        <v>96170</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="M36" s="7">
-        <v>296</v>
-      </c>
-      <c r="N36" s="7">
-        <v>205119</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>108948</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>405</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>406</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H37" s="7">
+        <v>139</v>
+      </c>
+      <c r="I37" s="7">
+        <v>96170</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M37" s="7">
+        <v>296</v>
+      </c>
+      <c r="N37" s="7">
+        <v>205119</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>413</v>
@@ -6103,7 +6103,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C38" s="7">
         <v>267</v>
@@ -6142,7 +6142,7 @@
         <v>356158</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>420</v>
@@ -6163,13 +6163,13 @@
         <v>326078</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H39" s="7">
         <v>443</v>
@@ -6178,13 +6178,13 @@
         <v>311258</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M39" s="7">
         <v>917</v>
@@ -6193,13 +6193,13 @@
         <v>637337</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6220,7 +6220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4359820-28EE-4298-9AAC-7E248A10F90E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEBB5BE-802A-4757-9F79-FFAB8CEBCF57}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6338,253 +6338,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9852</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="H4" s="7">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7905</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M4" s="7">
-        <v>27</v>
-      </c>
-      <c r="N4" s="7">
-        <v>17758</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1278</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>2496</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>431</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>432</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3774</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>434</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>435</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>40865</v>
+        <v>562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>438</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="H6" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>42163</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>440</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>441</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="M6" s="7">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>83028</v>
+        <v>562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>429</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>430</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>573</v>
+        <v>5238</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>433</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>573</v>
+        <v>8484</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>436</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>50556</v>
+        <v>9399</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>438</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H8" s="7">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>48631</v>
+        <v>7485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="M8" s="7">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>99187</v>
+        <v>16884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,108 +6593,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>102551</v>
+        <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>101768</v>
+        <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>204319</v>
+        <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>3680</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>458</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>6467</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>460</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>461</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>10147</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>464</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>465</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6718,13 +6718,13 @@
         <v>1362</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -6733,121 +6733,121 @@
         <v>1362</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>19626</v>
+        <v>3680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>234</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>453</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>18879</v>
+        <v>6467</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="M12" s="7">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="N12" s="7">
-        <v>38504</v>
+        <v>10147</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>19626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>460</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7">
+        <v>27</v>
+      </c>
+      <c r="I13" s="7">
+        <v>18879</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="M13" s="7">
+        <v>52</v>
+      </c>
+      <c r="N13" s="7">
+        <v>38504</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14" s="7">
         <v>45</v>
@@ -6856,13 +6856,13 @@
         <v>34531</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -6871,13 +6871,13 @@
         <v>29573</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -6886,13 +6886,13 @@
         <v>64104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6907,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6922,13 +6922,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -6937,270 +6937,270 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>12698</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>485</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>486</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>16044</v>
+        <v>573</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>489</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="M16" s="7">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>28742</v>
+        <v>573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>713</v>
+        <v>1278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>493</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>494</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>1574</v>
+        <v>2496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>480</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>2287</v>
+        <v>3774</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>34095</v>
+        <v>9852</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>498</v>
+        <v>172</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>31946</v>
+        <v>7905</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="M18" s="7">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>66040</v>
+        <v>17758</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>40865</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>21</v>
+        <v>493</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>494</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>42163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
+        <v>496</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>464</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>83028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>21</v>
+        <v>498</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>499</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D20" s="7">
-        <v>51204</v>
+        <v>50556</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>509</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H20" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I20" s="7">
-        <v>53528</v>
+        <v>48631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="M20" s="7">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="N20" s="7">
-        <v>104732</v>
+        <v>99187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,306 +7209,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D21" s="7">
-        <v>98710</v>
+        <v>102551</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H21" s="7">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="I21" s="7">
-        <v>103092</v>
+        <v>101768</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M21" s="7">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="N21" s="7">
-        <v>201802</v>
+        <v>204319</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>1352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>510</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>562</v>
+        <v>1352</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>514</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>515</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>516</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1787</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>518</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>3246</v>
+        <v>5552</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7150</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>18</v>
+      </c>
+      <c r="N24" s="7">
+        <v>12702</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5238</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="M24" s="7">
-        <v>9</v>
-      </c>
-      <c r="N24" s="7">
-        <v>8484</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>25339</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>528</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>529</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>530</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>17049</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>531</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>532</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>42388</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>534</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>535</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D26" s="7">
-        <v>9399</v>
+        <v>42649</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>533</v>
+        <v>282</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I26" s="7">
-        <v>7485</v>
+        <v>43652</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M26" s="7">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="N26" s="7">
-        <v>16884</v>
+        <v>86301</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,270 +7517,270 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13207</v>
+        <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>25930</v>
+        <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>5552</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>542</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>543</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>7150</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="M28" s="7">
-        <v>18</v>
-      </c>
-      <c r="N28" s="7">
-        <v>12702</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>1081</v>
+        <v>713</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1574</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2287</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>706</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1787</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>25339</v>
+        <v>12698</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="H30" s="7">
+        <v>21</v>
+      </c>
+      <c r="I30" s="7">
+        <v>16044</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>39</v>
+      </c>
+      <c r="N30" s="7">
+        <v>28742</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="H30" s="7">
-        <v>27</v>
-      </c>
-      <c r="I30" s="7">
-        <v>17049</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="M30" s="7">
-        <v>62</v>
-      </c>
-      <c r="N30" s="7">
-        <v>42388</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>34095</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>560</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>561</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H31" s="7">
+        <v>42</v>
+      </c>
+      <c r="I31" s="7">
+        <v>31946</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1352</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>89</v>
+      </c>
+      <c r="N31" s="7">
+        <v>66040</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="M31" s="7">
-        <v>2</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1352</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D32" s="7">
-        <v>42649</v>
+        <v>51204</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>287</v>
+        <v>569</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>570</v>
@@ -7789,10 +7789,10 @@
         <v>571</v>
       </c>
       <c r="H32" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I32" s="7">
-        <v>43652</v>
+        <v>53528</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>572</v>
@@ -7804,10 +7804,10 @@
         <v>574</v>
       </c>
       <c r="M32" s="7">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="N32" s="7">
-        <v>86301</v>
+        <v>104732</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>575</v>
@@ -7825,49 +7825,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D33" s="7">
-        <v>74621</v>
+        <v>98710</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H33" s="7">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="I33" s="7">
-        <v>69909</v>
+        <v>103092</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="N33" s="7">
-        <v>144530</v>
+        <v>201802</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,55 +7878,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>32344</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1925</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="L34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1925</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="H34" s="7">
-        <v>52</v>
-      </c>
-      <c r="I34" s="7">
-        <v>37567</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="M34" s="7">
-        <v>99</v>
-      </c>
-      <c r="N34" s="7">
-        <v>69911</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>584</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>585</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>4</v>
@@ -7935,13 +7935,13 @@
         <v>3072</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>521</v>
+        <v>427</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -7950,13 +7950,13 @@
         <v>6138</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -7965,121 +7965,121 @@
         <v>9210</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="D36" s="7">
-        <v>123169</v>
+        <v>32344</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="H36" s="7">
+        <v>52</v>
+      </c>
+      <c r="I36" s="7">
+        <v>37567</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="M36" s="7">
+        <v>99</v>
+      </c>
+      <c r="N36" s="7">
+        <v>69911</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="H36" s="7">
-        <v>165</v>
-      </c>
-      <c r="I36" s="7">
-        <v>115274</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="M36" s="7">
-        <v>335</v>
-      </c>
-      <c r="N36" s="7">
-        <v>238444</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>123169</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>595</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>596</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>411</v>
+        <v>597</v>
       </c>
       <c r="H37" s="7">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="I37" s="7">
-        <v>1925</v>
+        <v>115274</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>446</v>
+        <v>598</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="M37" s="7">
+        <v>335</v>
+      </c>
+      <c r="N37" s="7">
+        <v>238444</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M37" s="7">
-        <v>3</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1925</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C38" s="7">
         <v>256</v>
@@ -8139,13 +8139,13 @@
         <v>346924</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H39" s="7">
         <v>490</v>
@@ -8154,13 +8154,13 @@
         <v>343774</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M39" s="7">
         <v>967</v>
@@ -8169,13 +8169,13 @@
         <v>690698</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EDCB432-7C98-4BA1-A7E0-54D699D45FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E27D62-D357-471A-BCE2-6C6E59E2BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{97104C87-5C7E-490E-BD02-673630AC28A7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E72D603-7C4D-47A2-87F9-0C5658EFB141}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="611">
   <si>
     <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2007 (Tasa respuesta: 42,54%)</t>
   </si>
@@ -70,1813 +70,1807 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
   </si>
   <si>
     <t>69,36%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2015 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2015 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
     <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1881,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1983,39 +1977,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2067,7 +2061,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2178,13 +2172,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2193,6 +2180,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2257,19 +2251,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE6B801-7451-46D3-9E1E-ED2468684FB8}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427AE449-47A9-4F8A-ADC8-5F32A8A5460B}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2386,10 +2400,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5976</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2401,91 +2415,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5387</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>11363</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5065</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>12091</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -2494,13 +2508,13 @@
         <v>1440</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -2509,13 +2523,13 @@
         <v>929</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -2524,115 +2538,115 @@
         <v>2368</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5065</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>7026</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>12091</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>5976</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>5387</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>11363</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,106 +2708,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>26664</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>17805</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>44469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>19527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>635</v>
+        <v>18372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="N11" s="7">
-        <v>635</v>
+        <v>37899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>15</v>
@@ -2802,13 +2816,13 @@
         <v>9298</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -2817,13 +2831,13 @@
         <v>7348</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -2832,112 +2846,112 @@
         <v>16646</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>19527</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>18372</v>
+        <v>635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>37899</v>
+        <v>635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>26664</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>17805</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>44469</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>80</v>
@@ -3002,106 +3016,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>667</v>
+        <v>49898</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>642</v>
+        <v>49937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="N16" s="7">
-        <v>1309</v>
+        <v>99834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>27549</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>1124</v>
+        <v>33340</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="N17" s="7">
-        <v>1124</v>
+        <v>60889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>20</v>
@@ -3110,13 +3124,13 @@
         <v>13311</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -3125,13 +3139,13 @@
         <v>12802</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -3140,115 +3154,115 @@
         <v>26113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>27549</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>33340</v>
+        <v>1124</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>60889</v>
+        <v>1124</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>49898</v>
+        <v>667</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>49937</v>
+        <v>642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>99834</v>
+        <v>1309</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,112 +3318,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>38400</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I22" s="7">
-        <v>687</v>
+        <v>31740</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="N22" s="7">
-        <v>687</v>
+        <v>70140</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D23" s="7">
-        <v>719</v>
+        <v>15536</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>14838</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N23" s="7">
-        <v>719</v>
+        <v>30374</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>10</v>
@@ -3418,13 +3432,13 @@
         <v>6722</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -3433,13 +3447,13 @@
         <v>8388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -3448,115 +3462,115 @@
         <v>15110</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>15536</v>
+        <v>719</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>14838</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>30374</v>
+        <v>719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>38400</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>31740</v>
+        <v>687</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>70140</v>
+        <v>687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,112 +3626,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>46401</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>43400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>89802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7">
-        <v>578</v>
+        <v>30050</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I29" s="7">
-        <v>4421</v>
+        <v>25586</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="N29" s="7">
-        <v>4999</v>
+        <v>55636</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>16</v>
@@ -3726,13 +3740,13 @@
         <v>11099</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -3741,13 +3755,13 @@
         <v>4902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -3756,115 +3770,115 @@
         <v>16002</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>30050</v>
+        <v>578</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H31" s="7">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="I31" s="7">
-        <v>25586</v>
+        <v>4421</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="M31" s="7">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="N31" s="7">
-        <v>55636</v>
+        <v>4999</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>46401</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>43400</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M32" s="7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>89802</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,106 +3940,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="D34" s="7">
-        <v>667</v>
+        <v>167338</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="I34" s="7">
-        <v>1328</v>
+        <v>148270</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M34" s="7">
-        <v>3</v>
+        <v>474</v>
       </c>
       <c r="N34" s="7">
-        <v>1996</v>
+        <v>315608</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="D35" s="7">
-        <v>1297</v>
+        <v>97726</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H35" s="7">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="I35" s="7">
-        <v>6179</v>
+        <v>99162</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M35" s="7">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="N35" s="7">
-        <v>7477</v>
+        <v>196888</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>47</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>63</v>
@@ -4034,13 +4048,13 @@
         <v>41870</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -4049,13 +4063,13 @@
         <v>34369</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M36" s="7">
         <v>115</v>
@@ -4064,115 +4078,115 @@
         <v>76240</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>97726</v>
+        <v>1297</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H37" s="7">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="I37" s="7">
-        <v>99162</v>
+        <v>6179</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M37" s="7">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="N37" s="7">
-        <v>196888</v>
+        <v>7477</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>221</v>
+        <v>111</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>167338</v>
+        <v>667</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
-        <v>220</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>148270</v>
+        <v>1328</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M38" s="7">
-        <v>474</v>
+        <v>3</v>
       </c>
       <c r="N38" s="7">
-        <v>315608</v>
+        <v>1996</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,6 +4238,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4244,8 +4263,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C6E93C-D5BE-432E-B6A8-4979D54A865B}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B623AE6C-EB88-49C3-B0C1-F57FC70CE73C}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4261,7 +4280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4362,106 +4381,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6312</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6174</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>12486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6196</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>8741</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -4470,13 +4489,13 @@
         <v>1982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4485,13 +4504,13 @@
         <v>2556</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4500,115 +4519,115 @@
         <v>4538</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>6196</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>2545</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>8741</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>6312</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>6174</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>12486</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,106 +4689,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>32855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>34682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>67536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>21265</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>916</v>
+        <v>10786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N11" s="7">
-        <v>916</v>
+        <v>32052</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -4778,13 +4797,13 @@
         <v>3367</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4793,13 +4812,13 @@
         <v>4871</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -4808,115 +4827,115 @@
         <v>8239</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>21265</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>10786</v>
+        <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>32052</v>
+        <v>916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>32855</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>34682</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>67536</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,106 +4997,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>51332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>55686</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>107018</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>34348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>1476</v>
+        <v>30422</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>1476</v>
+        <v>64770</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>14</v>
@@ -5086,13 +5105,13 @@
         <v>9487</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -5101,13 +5120,13 @@
         <v>10253</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -5116,115 +5135,115 @@
         <v>19740</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>34348</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>184</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>30422</v>
+        <v>1476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>64770</v>
+        <v>1476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>51332</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>55686</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>107018</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,112 +5299,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>46463</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>330</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>38330</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>84793</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>1643</v>
+        <v>16775</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>18925</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="N23" s="7">
-        <v>1643</v>
+        <v>35700</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>7</v>
@@ -5394,13 +5413,13 @@
         <v>4200</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -5409,13 +5428,13 @@
         <v>7912</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5424,115 +5443,115 @@
         <v>12112</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>16775</v>
+        <v>1643</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="H25" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>18925</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>32</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="M25" s="7">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>35700</v>
+        <v>1643</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>46463</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="H26" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>38330</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>84793</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,112 +5607,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>45309</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>365</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>39017</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>84325</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>370</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D29" s="7">
-        <v>1561</v>
+        <v>30364</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="I29" s="7">
-        <v>1620</v>
+        <v>33492</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M29" s="7">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="N29" s="7">
-        <v>3181</v>
+        <v>63855</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>92</v>
+        <v>379</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>362</v>
+        <v>60</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>17</v>
@@ -5702,13 +5721,13 @@
         <v>12620</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -5717,13 +5736,13 @@
         <v>11597</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -5732,115 +5751,115 @@
         <v>24216</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>30364</v>
+        <v>1561</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>374</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="H31" s="7">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>33492</v>
+        <v>1620</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>391</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="M31" s="7">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>63855</v>
+        <v>3181</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>379</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>45309</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>381</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>382</v>
+        <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="H32" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>39017</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>384</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M32" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>84325</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>387</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>388</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,106 +5921,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>182270</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>398</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>399</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>173888</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>402</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="M34" s="7">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="N34" s="7">
-        <v>0</v>
+        <v>356158</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>12</v>
+        <v>405</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="D35" s="7">
-        <v>3204</v>
+        <v>108948</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>201</v>
+        <v>409</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="I35" s="7">
-        <v>4012</v>
+        <v>96170</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="M35" s="7">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="N35" s="7">
-        <v>7215</v>
+        <v>205119</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>413</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>45</v>
@@ -6010,13 +6029,13 @@
         <v>31656</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>334</v>
+        <v>416</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -6025,13 +6044,13 @@
         <v>37189</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="M36" s="7">
         <v>97</v>
@@ -6040,115 +6059,115 @@
         <v>68844</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
-        <v>108948</v>
+        <v>3204</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>407</v>
+        <v>37</v>
       </c>
       <c r="H37" s="7">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>96170</v>
+        <v>4012</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>408</v>
+        <v>329</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="M37" s="7">
-        <v>296</v>
+        <v>10</v>
       </c>
       <c r="N37" s="7">
-        <v>205119</v>
+        <v>7215</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>182270</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>414</v>
+        <v>32</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="H38" s="7">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>173888</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>417</v>
+        <v>32</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>418</v>
+        <v>40</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="M38" s="7">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>356158</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,6 +6219,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6220,8 +6244,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDEBB5BE-802A-4757-9F79-FFAB8CEBCF57}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A8193B-34E0-4231-9706-670409EFCB63}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6237,7 +6261,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6338,106 +6362,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>9399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>435</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>436</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7485</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>16884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>440</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>441</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>444</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>5238</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>8484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>449</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -6446,13 +6470,13 @@
         <v>562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6461,13 +6485,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6476,115 +6500,115 @@
         <v>562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>3246</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>429</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>431</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>5238</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>432</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>433</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>8484</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>436</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>9399</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>438</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>439</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7485</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>441</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>442</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="M8" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>16884</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>444</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>445</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,106 +6670,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>34531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>29573</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>459</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>460</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>64104</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>462</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>19626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>465</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>1362</v>
+        <v>18879</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>296</v>
+        <v>466</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>467</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="N11" s="7">
-        <v>1362</v>
+        <v>38504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>470</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>451</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -6754,13 +6778,13 @@
         <v>3680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -6769,13 +6793,13 @@
         <v>6467</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -6784,115 +6808,115 @@
         <v>10147</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>19626</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>460</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>18879</v>
+        <v>1362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>38504</v>
+        <v>1362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>464</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>465</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>34531</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>467</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>468</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>29573</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>470</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="M14" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>64104</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>472</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>473</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>474</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,106 +6978,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>50556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>484</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>485</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>486</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="I16" s="7">
-        <v>573</v>
+        <v>48631</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>488</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="N16" s="7">
-        <v>573</v>
+        <v>99187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>478</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>1278</v>
+        <v>40865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>492</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>494</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="I17" s="7">
-        <v>2496</v>
+        <v>42163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="N17" s="7">
-        <v>3774</v>
+        <v>83028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>483</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>15</v>
@@ -7062,13 +7086,13 @@
         <v>9852</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7077,13 +7101,13 @@
         <v>7905</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -7092,115 +7116,115 @@
         <v>17758</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>40865</v>
+        <v>1278</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>493</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>494</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="H19" s="7">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>42163</v>
+        <v>2496</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="M19" s="7">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>83028</v>
+        <v>3774</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>499</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>50556</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>501</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>502</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>48631</v>
+        <v>573</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>504</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M20" s="7">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>99187</v>
+        <v>573</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>507</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>508</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,112 +7280,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>42649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>515</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="I22" s="7">
-        <v>1352</v>
+        <v>43652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="N22" s="7">
-        <v>1352</v>
+        <v>86301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>521</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7">
-        <v>1081</v>
+        <v>25339</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>524</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I23" s="7">
-        <v>706</v>
+        <v>17049</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>527</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="N23" s="7">
-        <v>1787</v>
+        <v>42388</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>530</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>8</v>
@@ -7370,13 +7394,13 @@
         <v>5552</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -7385,13 +7409,13 @@
         <v>7150</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>524</v>
+        <v>251</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -7400,115 +7424,115 @@
         <v>12702</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>25339</v>
+        <v>1081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>529</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>530</v>
+        <v>292</v>
       </c>
       <c r="H25" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>17049</v>
+        <v>706</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>532</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="M25" s="7">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>42388</v>
+        <v>1787</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>535</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>42649</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>537</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H26" s="7">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>43652</v>
+        <v>1352</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>540</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="M26" s="7">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>86301</v>
+        <v>1352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>543</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,112 +7588,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>51204</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>549</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>550</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>53528</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>552</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>104732</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D29" s="7">
-        <v>713</v>
+        <v>34095</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>557</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I29" s="7">
-        <v>1574</v>
+        <v>31946</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>559</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>560</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="N29" s="7">
-        <v>2287</v>
+        <v>66040</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>347</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>18</v>
@@ -7678,13 +7702,13 @@
         <v>12698</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -7693,13 +7717,13 @@
         <v>16044</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -7708,115 +7732,115 @@
         <v>28742</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>303</v>
+        <v>571</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>34095</v>
+        <v>713</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>561</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="H31" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>31946</v>
+        <v>1574</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>564</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="M31" s="7">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>66040</v>
+        <v>2287</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>566</v>
+        <v>427</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>51204</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>569</v>
+        <v>32</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>570</v>
+        <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="H32" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>53528</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>572</v>
+        <v>32</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>573</v>
+        <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="M32" s="7">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>104732</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>575</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>576</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,106 +7902,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>188339</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>581</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>582</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="I34" s="7">
-        <v>1925</v>
+        <v>182870</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>475</v>
+        <v>584</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>158</v>
+        <v>586</v>
       </c>
       <c r="M34" s="7">
-        <v>3</v>
+        <v>517</v>
       </c>
       <c r="N34" s="7">
-        <v>1925</v>
+        <v>371209</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>477</v>
+        <v>587</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>358</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="D35" s="7">
-        <v>3072</v>
+        <v>123169</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>580</v>
+        <v>531</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>427</v>
+        <v>591</v>
       </c>
       <c r="H35" s="7">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="I35" s="7">
-        <v>6138</v>
+        <v>115274</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>263</v>
+        <v>592</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="M35" s="7">
-        <v>13</v>
+        <v>335</v>
       </c>
       <c r="N35" s="7">
-        <v>9210</v>
+        <v>238444</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>47</v>
@@ -7986,13 +8010,13 @@
         <v>32344</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>334</v>
+        <v>599</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -8001,13 +8025,13 @@
         <v>37567</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>591</v>
+        <v>387</v>
       </c>
       <c r="M36" s="7">
         <v>99</v>
@@ -8016,94 +8040,94 @@
         <v>69911</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="D37" s="7">
-        <v>123169</v>
+        <v>3072</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>595</v>
+        <v>232</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>596</v>
+        <v>432</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>597</v>
+        <v>357</v>
       </c>
       <c r="H37" s="7">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="I37" s="7">
-        <v>115274</v>
+        <v>6138</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>598</v>
+        <v>291</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>600</v>
+        <v>184</v>
       </c>
       <c r="M37" s="7">
-        <v>335</v>
+        <v>13</v>
       </c>
       <c r="N37" s="7">
-        <v>238444</v>
+        <v>9210</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>602</v>
+        <v>358</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>603</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>188339</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>604</v>
+        <v>32</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>605</v>
+        <v>40</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>606</v>
+        <v>430</v>
       </c>
       <c r="H38" s="7">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>182870</v>
+        <v>1925</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>607</v>
+        <v>512</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>608</v>
@@ -8112,19 +8136,19 @@
         <v>609</v>
       </c>
       <c r="M38" s="7">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="N38" s="7">
-        <v>371209</v>
+        <v>1925</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>611</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>612</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,6 +8200,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C12-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E27D62-D357-471A-BCE2-6C6E59E2BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E3D2AF8-9413-41CB-BA1A-98164305BB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E72D603-7C4D-47A2-87F9-0C5658EFB141}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C59C4F62-C8EC-40FC-9829-B25782B95829}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="609">
   <si>
     <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2007 (Tasa respuesta: 42,54%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,28 +76,28 @@
     <t>47,88%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
   </si>
   <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
   </si>
   <si>
     <t>44,0%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>40,58%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
   </si>
   <si>
     <t>52,66%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
   </si>
   <si>
     <t>46,82%</t>
   </si>
   <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -139,22 +139,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,67%</t>
+    <t>34,66%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>33,83%</t>
+    <t>29,26%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -178,1699 +178,1693 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>40,32%</t>
   </si>
   <si>
-    <t>28,66%</t>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
   </si>
   <si>
     <t>29,97%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>62,56%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2016 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
   </si>
   <si>
     <t>51,92%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2015 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,2%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427AE449-47A9-4F8A-ADC8-5F32A8A5460B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07965F8-CF29-43AC-B120-7D82D5495E5D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2834,10 +2828,10 @@
         <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -2846,13 +2840,13 @@
         <v>16646</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2867,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2882,13 +2876,13 @@
         <v>635</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2897,13 +2891,13 @@
         <v>635</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2918,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2939,7 +2933,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2954,7 +2948,7 @@
         <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,7 +3004,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3022,13 +3016,13 @@
         <v>49898</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -3037,13 +3031,13 @@
         <v>49937</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>154</v>
@@ -3052,13 +3046,13 @@
         <v>99834</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3067,13 @@
         <v>27549</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -3088,13 +3082,13 @@
         <v>33340</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -3103,13 +3097,13 @@
         <v>60889</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3118,13 @@
         <v>13311</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -3139,10 +3133,10 @@
         <v>12802</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>104</v>
@@ -3411,13 +3405,13 @@
         <v>30374</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3426,13 @@
         <v>6722</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -3447,13 +3441,13 @@
         <v>8388</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -3462,13 +3456,13 @@
         <v>15110</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3477,13 @@
         <v>719</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3504,7 +3498,7 @@
         <v>40</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -3513,13 +3507,13 @@
         <v>719</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3534,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3549,13 +3543,13 @@
         <v>687</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3570,7 +3564,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,7 +3620,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3638,13 +3632,13 @@
         <v>46401</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>57</v>
@@ -3653,13 +3647,13 @@
         <v>43400</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>124</v>
@@ -3668,13 +3662,13 @@
         <v>89802</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3683,13 @@
         <v>30050</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -3704,13 +3698,13 @@
         <v>25586</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>77</v>
@@ -3719,13 +3713,13 @@
         <v>55636</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3734,13 @@
         <v>11099</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -3755,13 +3749,13 @@
         <v>4902</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -3770,13 +3764,13 @@
         <v>16002</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,7 +3791,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -3806,13 +3800,13 @@
         <v>4421</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -3821,13 +3815,13 @@
         <v>4999</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,7 +3842,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3863,7 +3857,7 @@
         <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3878,7 +3872,7 @@
         <v>40</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3940,13 @@
         <v>167338</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H34" s="7">
         <v>220</v>
@@ -3961,13 +3955,13 @@
         <v>148270</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M34" s="7">
         <v>474</v>
@@ -3976,13 +3970,13 @@
         <v>315608</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3991,13 @@
         <v>97726</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="H35" s="7">
         <v>147</v>
@@ -4012,13 +4006,13 @@
         <v>99162</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M35" s="7">
         <v>292</v>
@@ -4027,13 +4021,13 @@
         <v>196888</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4042,13 @@
         <v>41870</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -4063,13 +4057,13 @@
         <v>34369</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>115</v>
@@ -4078,13 +4072,13 @@
         <v>76240</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4093,13 @@
         <v>1297</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -4114,13 +4108,13 @@
         <v>6179</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -4129,13 +4123,13 @@
         <v>7477</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4144,13 @@
         <v>667</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -4165,13 +4159,13 @@
         <v>1328</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4180,13 +4174,13 @@
         <v>1996</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4236,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4263,7 +4257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B623AE6C-EB88-49C3-B0C1-F57FC70CE73C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDA4BE3-2FEF-489E-A5AE-CDDECFA4E3E1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4280,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4387,13 +4381,13 @@
         <v>6312</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4402,13 +4396,13 @@
         <v>6174</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -4417,13 +4411,13 @@
         <v>12486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4432,13 @@
         <v>6196</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4453,13 +4447,13 @@
         <v>2545</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4468,13 +4462,13 @@
         <v>8741</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4483,13 @@
         <v>1982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4504,13 +4498,13 @@
         <v>2556</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4519,13 +4513,13 @@
         <v>4538</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,7 +4555,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4576,7 +4570,7 @@
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,7 +4606,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4627,7 +4621,7 @@
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4689,13 @@
         <v>32855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4710,13 +4704,13 @@
         <v>34682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -4725,13 +4719,13 @@
         <v>67536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4740,13 @@
         <v>21265</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -4761,13 +4755,13 @@
         <v>10786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>46</v>
@@ -4776,13 +4770,13 @@
         <v>32052</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4791,13 @@
         <v>3367</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -4812,13 +4806,13 @@
         <v>4871</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -4827,13 +4821,13 @@
         <v>8239</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,7 +4848,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4863,13 +4857,13 @@
         <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4878,13 +4872,13 @@
         <v>916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4899,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4920,7 +4914,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4935,7 +4929,7 @@
         <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,7 +4985,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5003,13 +4997,13 @@
         <v>51332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -5018,13 +5012,13 @@
         <v>55686</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -5033,13 +5027,13 @@
         <v>107018</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5048,13 @@
         <v>34348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -5069,13 +5063,13 @@
         <v>30422</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -5084,13 +5078,13 @@
         <v>64770</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5099,13 @@
         <v>9487</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -5120,13 +5114,13 @@
         <v>10253</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -5135,13 +5129,13 @@
         <v>19740</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,7 +5156,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5171,13 +5165,13 @@
         <v>1476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5186,13 +5180,13 @@
         <v>1476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,7 +5207,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5228,7 +5222,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5311,13 +5305,13 @@
         <v>46463</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -5326,13 +5320,13 @@
         <v>38330</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -5341,13 +5335,13 @@
         <v>84793</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5356,13 @@
         <v>16775</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -5377,13 +5371,13 @@
         <v>18925</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>57</v>
@@ -5392,13 +5386,13 @@
         <v>35700</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5407,13 @@
         <v>4200</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>349</v>
+        <v>37</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -5428,13 +5422,13 @@
         <v>7912</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -5443,13 +5437,13 @@
         <v>12112</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5458,13 @@
         <v>1643</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5485,7 +5479,7 @@
         <v>40</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5494,13 +5488,13 @@
         <v>1643</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5515,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5536,7 +5530,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5551,7 +5545,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5601,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5619,13 +5613,13 @@
         <v>45309</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -5634,13 +5628,13 @@
         <v>39017</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M28" s="7">
         <v>113</v>
@@ -5649,13 +5643,13 @@
         <v>84325</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5664,13 @@
         <v>30364</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -5685,13 +5679,13 @@
         <v>33492</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M29" s="7">
         <v>85</v>
@@ -5700,13 +5694,13 @@
         <v>63855</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>60</v>
+        <v>371</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5715,13 @@
         <v>12620</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -5736,13 +5730,13 @@
         <v>11597</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -5751,13 +5745,13 @@
         <v>24216</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5766,13 @@
         <v>1561</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -5787,13 +5781,13 @@
         <v>1620</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>392</v>
+        <v>177</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -5802,13 +5796,13 @@
         <v>3181</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>385</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,7 +5823,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5844,7 +5838,7 @@
         <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5859,7 +5853,7 @@
         <v>40</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5921,13 @@
         <v>182270</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H34" s="7">
         <v>247</v>
@@ -5942,13 +5936,13 @@
         <v>173888</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M34" s="7">
         <v>514</v>
@@ -5957,13 +5951,13 @@
         <v>356158</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5972,13 @@
         <v>108948</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H35" s="7">
         <v>139</v>
@@ -5993,13 +5987,13 @@
         <v>96170</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M35" s="7">
         <v>296</v>
@@ -6008,13 +6002,13 @@
         <v>205119</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>25</v>
+        <v>406</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6023,13 @@
         <v>31656</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -6044,13 +6038,13 @@
         <v>37189</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>420</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>97</v>
@@ -6059,13 +6053,13 @@
         <v>68844</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6074,13 @@
         <v>3204</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -6095,13 +6089,13 @@
         <v>4012</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>426</v>
+        <v>186</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -6110,13 +6104,13 @@
         <v>7215</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>429</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,7 +6131,7 @@
         <v>40</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6152,7 +6146,7 @@
         <v>40</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6167,7 +6161,7 @@
         <v>40</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,7 +6217,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6244,7 +6238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A8193B-34E0-4231-9706-670409EFCB63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026F659B-715E-42FE-A5B6-7C9EF80174C2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6261,7 +6255,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6368,13 +6362,13 @@
         <v>9399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -6383,13 +6377,13 @@
         <v>7485</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -6398,13 +6392,13 @@
         <v>16884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6413,13 @@
         <v>3246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -6434,13 +6428,13 @@
         <v>5238</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>214</v>
+        <v>437</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6449,13 +6443,13 @@
         <v>8484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>450</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,13 +6464,13 @@
         <v>562</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6491,7 +6485,7 @@
         <v>40</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6500,13 +6494,13 @@
         <v>562</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>454</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,7 +6536,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6557,7 +6551,7 @@
         <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,7 +6587,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6608,7 +6602,7 @@
         <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6670,13 @@
         <v>34531</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>301</v>
+        <v>446</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -6691,13 +6685,13 @@
         <v>29573</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -6706,13 +6700,13 @@
         <v>64104</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6721,13 @@
         <v>19626</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -6742,13 +6736,13 @@
         <v>18879</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -6757,13 +6751,13 @@
         <v>38504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6772,13 @@
         <v>3680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -6793,13 +6787,13 @@
         <v>6467</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -6808,13 +6802,13 @@
         <v>10147</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6829,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6844,13 +6838,13 @@
         <v>1362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>480</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -6859,13 +6853,13 @@
         <v>1362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>471</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,7 +6880,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6901,7 +6895,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6916,7 +6910,7 @@
         <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,7 +6966,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6984,13 +6978,13 @@
         <v>50556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -6999,13 +6993,13 @@
         <v>48631</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -7014,13 +7008,13 @@
         <v>99187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7029,13 @@
         <v>40865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -7050,13 +7044,13 @@
         <v>42163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -7065,13 +7059,13 @@
         <v>83028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>490</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7080,13 @@
         <v>9852</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7101,13 +7095,13 @@
         <v>7905</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>503</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>495</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -7116,13 +7110,13 @@
         <v>17758</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7131,13 @@
         <v>1278</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7152,13 +7146,13 @@
         <v>2496</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>508</v>
+        <v>37</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>77</v>
+        <v>500</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -7167,13 +7161,13 @@
         <v>3774</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>511</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,7 +7188,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7203,13 +7197,13 @@
         <v>573</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>512</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7218,13 +7212,13 @@
         <v>573</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,13 +7286,13 @@
         <v>42649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -7307,13 +7301,13 @@
         <v>43652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="M22" s="7">
         <v>128</v>
@@ -7322,13 +7316,13 @@
         <v>86301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,13 +7337,13 @@
         <v>25339</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -7358,13 +7352,13 @@
         <v>17049</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>527</v>
+        <v>279</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -7373,13 +7367,13 @@
         <v>42388</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,13 +7388,13 @@
         <v>5552</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -7409,13 +7403,13 @@
         <v>7150</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>251</v>
+        <v>526</v>
       </c>
       <c r="M24" s="7">
         <v>18</v>
@@ -7424,13 +7418,13 @@
         <v>12702</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,13 +7439,13 @@
         <v>1081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>292</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7460,13 +7454,13 @@
         <v>706</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7475,13 +7469,13 @@
         <v>1787</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>542</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,7 +7496,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -7511,13 +7505,13 @@
         <v>1352</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7526,13 +7520,13 @@
         <v>1352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7582,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7600,13 +7594,13 @@
         <v>51204</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -7615,13 +7609,13 @@
         <v>53528</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>121</v>
+        <v>543</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>553</v>
+        <v>395</v>
       </c>
       <c r="M28" s="7">
         <v>137</v>
@@ -7630,13 +7624,13 @@
         <v>104732</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>124</v>
+        <v>546</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,13 +7645,13 @@
         <v>34095</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -7666,13 +7660,13 @@
         <v>31946</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -7681,13 +7675,13 @@
         <v>66040</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>347</v>
+        <v>554</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,13 +7696,13 @@
         <v>12698</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -7717,13 +7711,13 @@
         <v>16044</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -7732,13 +7726,13 @@
         <v>28742</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,13 +7747,13 @@
         <v>713</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -7768,13 +7762,13 @@
         <v>1574</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -7783,13 +7777,13 @@
         <v>2287</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,7 +7804,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7825,7 +7819,7 @@
         <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7840,7 +7834,7 @@
         <v>40</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7908,13 +7902,13 @@
         <v>188339</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="H34" s="7">
         <v>261</v>
@@ -7923,13 +7917,13 @@
         <v>182870</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="M34" s="7">
         <v>517</v>
@@ -7938,13 +7932,13 @@
         <v>371209</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7959,13 +7953,13 @@
         <v>123169</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>531</v>
+        <v>583</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="H35" s="7">
         <v>165</v>
@@ -7974,13 +7968,13 @@
         <v>115274</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="M35" s="7">
         <v>335</v>
@@ -7989,13 +7983,13 @@
         <v>238444</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,13 +8004,13 @@
         <v>32344</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -8025,13 +8019,13 @@
         <v>37567</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>387</v>
+        <v>597</v>
       </c>
       <c r="M36" s="7">
         <v>99</v>
@@ -8040,13 +8034,13 @@
         <v>69911</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>603</v>
+        <v>561</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,13 +8055,13 @@
         <v>3072</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>232</v>
+        <v>600</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>432</v>
+        <v>601</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -8076,13 +8070,13 @@
         <v>6138</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -8091,13 +8085,13 @@
         <v>9210</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>358</v>
+        <v>603</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>112</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,7 +8112,7 @@
         <v>40</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8127,13 +8121,13 @@
         <v>1925</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>512</v>
+        <v>419</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -8142,13 +8136,13 @@
         <v>1925</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>327</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8204,7 +8198,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
